--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/CREDITOS  ABASTOS  HERRADURA   JUNIO   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/CREDITOS  ABASTOS  HERRADURA   JUNIO   2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="10305" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="10305" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES  ENERO  2022" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,8 @@
     <sheet name="REMISIONES   MARZO   2022  " sheetId="3" r:id="rId3"/>
     <sheet name="REMISIONES   ABRIL  2022" sheetId="4" r:id="rId4"/>
     <sheet name="  REMISIONES   MAYO   2022   " sheetId="5" r:id="rId5"/>
-    <sheet name="Hoja2" sheetId="6" r:id="rId6"/>
+    <sheet name="  REMISIONES   JUNIO   2022   " sheetId="6" r:id="rId6"/>
+    <sheet name="Hoja1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="31">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -167,6 +168,9 @@
   </si>
   <si>
     <t>JOSE CABRERA</t>
+  </si>
+  <si>
+    <t>REMISIONES    POR     CREDITOS         DE   JUNIO      2 0 2 2</t>
   </si>
 </sst>
 </file>
@@ -549,7 +553,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -700,21 +704,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1319,6 +1308,117 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647703</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="1 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4576765" y="11568115"/>
+          <a:ext cx="581022" cy="590546"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561977</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>123829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>161927</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5472114" y="11615742"/>
+          <a:ext cx="638173" cy="495298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -1607,25 +1707,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="77"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="70"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
+      <c r="B2" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -2373,12 +2473,12 @@
       <c r="B45" s="47"/>
       <c r="C45" s="48"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="79">
+      <c r="E45" s="72">
         <f>E41-G41</f>
         <v>0</v>
       </c>
-      <c r="F45" s="80"/>
-      <c r="G45" s="81"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="74"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2394,11 +2494,11 @@
       <c r="B47" s="47"/>
       <c r="C47" s="48"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="82" t="s">
+      <c r="E47" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="82"/>
-      <c r="G47" s="82"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="75"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -2540,25 +2640,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="77"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="70"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
+      <c r="B2" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -3583,12 +3683,12 @@
       <c r="B55" s="47"/>
       <c r="C55" s="48"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="79">
+      <c r="E55" s="72">
         <f>E51-G51</f>
         <v>0</v>
       </c>
-      <c r="F55" s="80"/>
-      <c r="G55" s="81"/>
+      <c r="F55" s="73"/>
+      <c r="G55" s="74"/>
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -3604,11 +3704,11 @@
       <c r="B57" s="47"/>
       <c r="C57" s="48"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="82" t="s">
+      <c r="E57" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="F57" s="82"/>
-      <c r="G57" s="82"/>
+      <c r="F57" s="75"/>
+      <c r="G57" s="75"/>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -3750,25 +3850,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="77"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="70"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
+      <c r="B2" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -4715,12 +4815,12 @@
       <c r="B52" s="47"/>
       <c r="C52" s="48"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="79">
+      <c r="E52" s="72">
         <f>E48-G48</f>
         <v>0</v>
       </c>
-      <c r="F52" s="80"/>
-      <c r="G52" s="81"/>
+      <c r="F52" s="73"/>
+      <c r="G52" s="74"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -4736,11 +4836,11 @@
       <c r="B54" s="47"/>
       <c r="C54" s="48"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="82" t="s">
+      <c r="E54" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="F54" s="82"/>
-      <c r="G54" s="82"/>
+      <c r="F54" s="75"/>
+      <c r="G54" s="75"/>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -4882,25 +4982,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="77"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="70"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
+      <c r="B2" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -6216,12 +6316,12 @@
       <c r="B63" s="47"/>
       <c r="C63" s="48"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="79">
+      <c r="E63" s="72">
         <f>E59-G59</f>
         <v>0</v>
       </c>
-      <c r="F63" s="80"/>
-      <c r="G63" s="81"/>
+      <c r="F63" s="73"/>
+      <c r="G63" s="74"/>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -6237,11 +6337,11 @@
       <c r="B65" s="47"/>
       <c r="C65" s="48"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="82" t="s">
+      <c r="E65" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="F65" s="82"/>
-      <c r="G65" s="82"/>
+      <c r="F65" s="75"/>
+      <c r="G65" s="75"/>
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -6363,8 +6463,8 @@
   </sheetPr>
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6383,25 +6483,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="77"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="70"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
+      <c r="B2" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -6731,11 +6831,15 @@
       <c r="E15" s="23">
         <v>516</v>
       </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
+      <c r="F15" s="66">
+        <v>44712</v>
+      </c>
+      <c r="G15" s="67">
+        <v>516</v>
+      </c>
       <c r="H15" s="21">
         <f t="shared" si="0"/>
-        <v>516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -7195,10 +7299,10 @@
       <c r="E33" s="23">
         <v>14579</v>
       </c>
-      <c r="F33" s="68">
+      <c r="F33" s="24">
         <v>44705</v>
       </c>
-      <c r="G33" s="69">
+      <c r="G33" s="25">
         <v>14579</v>
       </c>
       <c r="H33" s="21">
@@ -7233,15 +7337,15 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="70">
+      <c r="A35" s="31">
         <v>44705</v>
       </c>
-      <c r="B35" s="71">
+      <c r="B35" s="34">
         <f t="shared" si="1"/>
         <v>242</v>
       </c>
-      <c r="C35" s="38"/>
-      <c r="D35" s="72" t="s">
+      <c r="C35" s="32"/>
+      <c r="D35" s="27" t="s">
         <v>8</v>
       </c>
       <c r="E35" s="23">
@@ -7259,24 +7363,24 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="70">
+      <c r="A36" s="31">
         <v>44706</v>
       </c>
-      <c r="B36" s="71">
+      <c r="B36" s="34">
         <f t="shared" si="1"/>
         <v>243</v>
       </c>
-      <c r="C36" s="38"/>
-      <c r="D36" s="72" t="s">
+      <c r="C36" s="32"/>
+      <c r="D36" s="27" t="s">
         <v>22</v>
       </c>
       <c r="E36" s="23">
         <v>11727</v>
       </c>
-      <c r="F36" s="68">
+      <c r="F36" s="24">
         <v>44707</v>
       </c>
-      <c r="G36" s="69">
+      <c r="G36" s="25">
         <v>11727</v>
       </c>
       <c r="H36" s="21">
@@ -7285,15 +7389,15 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="70">
+      <c r="A37" s="31">
         <v>44706</v>
       </c>
-      <c r="B37" s="71">
+      <c r="B37" s="34">
         <f t="shared" si="1"/>
         <v>244</v>
       </c>
-      <c r="C37" s="38"/>
-      <c r="D37" s="72" t="s">
+      <c r="C37" s="32"/>
+      <c r="D37" s="27" t="s">
         <v>29</v>
       </c>
       <c r="E37" s="23">
@@ -7311,24 +7415,24 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="70">
+      <c r="A38" s="31">
         <v>44707</v>
       </c>
-      <c r="B38" s="71">
+      <c r="B38" s="34">
         <f t="shared" si="1"/>
         <v>245</v>
       </c>
-      <c r="C38" s="38"/>
-      <c r="D38" s="72" t="s">
-        <v>9</v>
+      <c r="C38" s="32"/>
+      <c r="D38" s="27" t="s">
+        <v>23</v>
       </c>
       <c r="E38" s="23">
         <v>4991</v>
       </c>
-      <c r="F38" s="73">
+      <c r="F38" s="35">
         <v>44707</v>
       </c>
-      <c r="G38" s="74">
+      <c r="G38" s="36">
         <v>4991</v>
       </c>
       <c r="H38" s="21">
@@ -7337,15 +7441,15 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="70">
+      <c r="A39" s="31">
         <v>44707</v>
       </c>
-      <c r="B39" s="71">
+      <c r="B39" s="34">
         <f t="shared" si="1"/>
         <v>246</v>
       </c>
-      <c r="C39" s="38"/>
-      <c r="D39" s="72" t="s">
+      <c r="C39" s="32"/>
+      <c r="D39" s="27" t="s">
         <v>22</v>
       </c>
       <c r="E39" s="23">
@@ -7363,15 +7467,15 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="70">
+      <c r="A40" s="31">
         <v>44707</v>
       </c>
-      <c r="B40" s="71">
+      <c r="B40" s="34">
         <f t="shared" si="1"/>
         <v>247</v>
       </c>
-      <c r="C40" s="38"/>
-      <c r="D40" s="72" t="s">
+      <c r="C40" s="32"/>
+      <c r="D40" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E40" s="23">
@@ -7389,14 +7493,14 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="14">
+      <c r="A41" s="31">
         <v>44708</v>
       </c>
-      <c r="B41" s="15">
+      <c r="B41" s="34">
         <f t="shared" si="1"/>
         <v>248</v>
       </c>
-      <c r="C41" s="29"/>
+      <c r="C41" s="32"/>
       <c r="D41" s="27" t="s">
         <v>29</v>
       </c>
@@ -7559,11 +7663,15 @@
       <c r="E47" s="23">
         <v>11856</v>
       </c>
-      <c r="F47" s="24"/>
-      <c r="G47" s="25"/>
+      <c r="F47" s="66">
+        <v>44712</v>
+      </c>
+      <c r="G47" s="67">
+        <v>11856</v>
+      </c>
       <c r="H47" s="21">
         <f t="shared" si="0"/>
-        <v>11856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7633,11 +7741,15 @@
       <c r="E50" s="23">
         <v>12761</v>
       </c>
-      <c r="F50" s="24"/>
-      <c r="G50" s="25"/>
+      <c r="F50" s="66">
+        <v>44714</v>
+      </c>
+      <c r="G50" s="67">
+        <v>12761</v>
+      </c>
       <c r="H50" s="21">
         <f t="shared" si="0"/>
-        <v>12761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7677,11 +7789,11 @@
       <c r="F53" s="49"/>
       <c r="G53" s="49">
         <f>SUM(G4:G52)</f>
-        <v>474775</v>
+        <v>499908</v>
       </c>
       <c r="H53" s="50">
         <f>SUM(H4:H52)</f>
-        <v>25133</v>
+        <v>0</v>
       </c>
       <c r="I53" s="2"/>
     </row>
@@ -7723,12 +7835,12 @@
       <c r="B57" s="47"/>
       <c r="C57" s="48"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="79">
+      <c r="E57" s="72">
         <f>E53-G53</f>
-        <v>25133</v>
-      </c>
-      <c r="F57" s="80"/>
-      <c r="G57" s="81"/>
+        <v>0</v>
+      </c>
+      <c r="F57" s="73"/>
+      <c r="G57" s="74"/>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -7744,11 +7856,1249 @@
       <c r="B59" s="47"/>
       <c r="C59" s="48"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="82" t="s">
+      <c r="E59" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="F59" s="82"/>
-      <c r="G59" s="82"/>
+      <c r="F59" s="75"/>
+      <c r="G59" s="75"/>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="47"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="51"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="53"/>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A61" s="57"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="58"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="60"/>
+      <c r="G61" s="59"/>
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="47"/>
+      <c r="C62" s="48"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="51"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="53"/>
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="47"/>
+      <c r="C63" s="48"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="53"/>
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="47"/>
+      <c r="C64" s="48"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="51"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="53"/>
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="47"/>
+      <c r="C65" s="48"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="51"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="53"/>
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="47"/>
+      <c r="C66" s="48"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="51"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="53"/>
+      <c r="I66" s="2"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B67" s="47"/>
+      <c r="C67" s="48"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="51"/>
+      <c r="F67" s="52"/>
+      <c r="G67" s="53"/>
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B68" s="47"/>
+      <c r="C68" s="48"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="51"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="53"/>
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B69" s="47"/>
+      <c r="C69" s="48"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="51"/>
+      <c r="F69" s="52"/>
+      <c r="G69" s="53"/>
+      <c r="I69" s="2"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B70" s="47"/>
+      <c r="C70" s="48"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="51"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="53"/>
+      <c r="I70" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E59:G59"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:I70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="13.140625" style="61" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="62" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="63" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="64" customWidth="1"/>
+    <col min="7" max="7" width="18" style="65" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="70"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="3"/>
+      <c r="B2" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="46.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>44711</v>
+      </c>
+      <c r="B4" s="15">
+        <v>258</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="18">
+        <v>382</v>
+      </c>
+      <c r="F4" s="19">
+        <v>44716</v>
+      </c>
+      <c r="G4" s="20">
+        <v>382</v>
+      </c>
+      <c r="H4" s="21">
+        <f t="shared" ref="H4:H52" si="0">E4-G4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>44712</v>
+      </c>
+      <c r="B5" s="15">
+        <v>259</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="23">
+        <v>10697</v>
+      </c>
+      <c r="F5" s="24">
+        <v>44714</v>
+      </c>
+      <c r="G5" s="25">
+        <v>10697</v>
+      </c>
+      <c r="H5" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>44712</v>
+      </c>
+      <c r="B6" s="15">
+        <f t="shared" ref="B6:B50" si="1">B5+1</f>
+        <v>260</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="23">
+        <v>12540</v>
+      </c>
+      <c r="F6" s="24">
+        <v>44715</v>
+      </c>
+      <c r="G6" s="25">
+        <v>12540</v>
+      </c>
+      <c r="H6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26">
+        <v>44714</v>
+      </c>
+      <c r="B7" s="15">
+        <f t="shared" si="1"/>
+        <v>261</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="23">
+        <v>20732</v>
+      </c>
+      <c r="F7" s="24">
+        <v>44715</v>
+      </c>
+      <c r="G7" s="25">
+        <v>20732</v>
+      </c>
+      <c r="H7" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>44715</v>
+      </c>
+      <c r="B8" s="15">
+        <f t="shared" si="1"/>
+        <v>262</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="23">
+        <v>17262</v>
+      </c>
+      <c r="F8" s="24">
+        <v>44716</v>
+      </c>
+      <c r="G8" s="25">
+        <v>17262</v>
+      </c>
+      <c r="H8" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>44715</v>
+      </c>
+      <c r="B9" s="15">
+        <f t="shared" si="1"/>
+        <v>263</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="23">
+        <v>3020</v>
+      </c>
+      <c r="F9" s="24">
+        <v>44717</v>
+      </c>
+      <c r="G9" s="25">
+        <v>3020</v>
+      </c>
+      <c r="H9" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>44715</v>
+      </c>
+      <c r="B10" s="15">
+        <f t="shared" si="1"/>
+        <v>264</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="23">
+        <v>15004</v>
+      </c>
+      <c r="F10" s="24">
+        <v>44717</v>
+      </c>
+      <c r="G10" s="25">
+        <v>15004</v>
+      </c>
+      <c r="H10" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>44715</v>
+      </c>
+      <c r="B11" s="15">
+        <f t="shared" si="1"/>
+        <v>265</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="23">
+        <v>434</v>
+      </c>
+      <c r="F11" s="24">
+        <v>44716</v>
+      </c>
+      <c r="G11" s="25">
+        <v>434</v>
+      </c>
+      <c r="H11" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>44716</v>
+      </c>
+      <c r="B12" s="15">
+        <f t="shared" si="1"/>
+        <v>266</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="23">
+        <v>14284</v>
+      </c>
+      <c r="F12" s="24">
+        <v>44717</v>
+      </c>
+      <c r="G12" s="25">
+        <v>14284</v>
+      </c>
+      <c r="H12" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>44717</v>
+      </c>
+      <c r="B13" s="15">
+        <f t="shared" si="1"/>
+        <v>267</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="23">
+        <v>8336</v>
+      </c>
+      <c r="F13" s="24">
+        <v>44718</v>
+      </c>
+      <c r="G13" s="25">
+        <v>8336</v>
+      </c>
+      <c r="H13" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>44717</v>
+      </c>
+      <c r="B14" s="15">
+        <f t="shared" si="1"/>
+        <v>268</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="23">
+        <v>10213</v>
+      </c>
+      <c r="F14" s="24">
+        <v>44719</v>
+      </c>
+      <c r="G14" s="25">
+        <v>10213</v>
+      </c>
+      <c r="H14" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <v>44717</v>
+      </c>
+      <c r="B15" s="15">
+        <f t="shared" si="1"/>
+        <v>269</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="23">
+        <v>12002</v>
+      </c>
+      <c r="F15" s="24">
+        <v>44721</v>
+      </c>
+      <c r="G15" s="25">
+        <v>12002</v>
+      </c>
+      <c r="H15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>44719</v>
+      </c>
+      <c r="B16" s="15">
+        <f t="shared" si="1"/>
+        <v>270</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="23">
+        <v>52</v>
+      </c>
+      <c r="F16" s="24">
+        <v>44719</v>
+      </c>
+      <c r="G16" s="25">
+        <v>52</v>
+      </c>
+      <c r="H16" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>44720</v>
+      </c>
+      <c r="B17" s="15">
+        <f t="shared" si="1"/>
+        <v>271</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="23">
+        <v>6134</v>
+      </c>
+      <c r="F17" s="24">
+        <v>44721</v>
+      </c>
+      <c r="G17" s="25">
+        <v>6134</v>
+      </c>
+      <c r="H17" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>44721</v>
+      </c>
+      <c r="B18" s="15">
+        <f t="shared" si="1"/>
+        <v>272</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="23">
+        <v>5724</v>
+      </c>
+      <c r="F18" s="24">
+        <v>44722</v>
+      </c>
+      <c r="G18" s="25">
+        <v>5724</v>
+      </c>
+      <c r="H18" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
+        <v>44721</v>
+      </c>
+      <c r="B19" s="15">
+        <f t="shared" si="1"/>
+        <v>273</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="23">
+        <v>10991</v>
+      </c>
+      <c r="F19" s="24">
+        <v>44722</v>
+      </c>
+      <c r="G19" s="25">
+        <v>10991</v>
+      </c>
+      <c r="H19" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
+        <v>44721</v>
+      </c>
+      <c r="B20" s="15">
+        <f t="shared" si="1"/>
+        <v>274</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="23">
+        <v>251</v>
+      </c>
+      <c r="F20" s="24"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="21">
+        <f t="shared" si="0"/>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <v>44722</v>
+      </c>
+      <c r="B21" s="15">
+        <f t="shared" si="1"/>
+        <v>275</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="23">
+        <v>2978</v>
+      </c>
+      <c r="F21" s="24"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="21">
+        <f t="shared" si="0"/>
+        <v>2978</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
+        <v>44722</v>
+      </c>
+      <c r="B22" s="15">
+        <f t="shared" si="1"/>
+        <v>276</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="23">
+        <v>6837</v>
+      </c>
+      <c r="F22" s="24">
+        <v>44723</v>
+      </c>
+      <c r="G22" s="25">
+        <v>6837</v>
+      </c>
+      <c r="H22" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
+        <v>44723</v>
+      </c>
+      <c r="B23" s="15">
+        <f t="shared" si="1"/>
+        <v>277</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="23">
+        <v>10823</v>
+      </c>
+      <c r="F23" s="24"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="21">
+        <f t="shared" si="0"/>
+        <v>10823</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15">
+        <f t="shared" si="1"/>
+        <v>278</v>
+      </c>
+      <c r="C24" s="29"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15">
+        <f t="shared" si="1"/>
+        <v>279</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="15">
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="15">
+        <f t="shared" si="1"/>
+        <v>281</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="15">
+        <f t="shared" si="1"/>
+        <v>282</v>
+      </c>
+      <c r="C28" s="29"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="15">
+        <f t="shared" si="1"/>
+        <v>283</v>
+      </c>
+      <c r="C29" s="29"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="15">
+        <f t="shared" si="1"/>
+        <v>284</v>
+      </c>
+      <c r="C30" s="29"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="15">
+        <f t="shared" si="1"/>
+        <v>285</v>
+      </c>
+      <c r="C31" s="29"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="15">
+        <f t="shared" si="1"/>
+        <v>286</v>
+      </c>
+      <c r="C32" s="29"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="15">
+        <f t="shared" si="1"/>
+        <v>287</v>
+      </c>
+      <c r="C33" s="29"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="15">
+        <f t="shared" si="1"/>
+        <v>288</v>
+      </c>
+      <c r="C34" s="29"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="31"/>
+      <c r="B35" s="34">
+        <f t="shared" si="1"/>
+        <v>289</v>
+      </c>
+      <c r="C35" s="32"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="31"/>
+      <c r="B36" s="34">
+        <f t="shared" si="1"/>
+        <v>290</v>
+      </c>
+      <c r="C36" s="32"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="31"/>
+      <c r="B37" s="34">
+        <f t="shared" si="1"/>
+        <v>291</v>
+      </c>
+      <c r="C37" s="32"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="31"/>
+      <c r="B38" s="34">
+        <f t="shared" si="1"/>
+        <v>292</v>
+      </c>
+      <c r="C38" s="32"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="31"/>
+      <c r="B39" s="34">
+        <f t="shared" si="1"/>
+        <v>293</v>
+      </c>
+      <c r="C39" s="32"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="31"/>
+      <c r="B40" s="34">
+        <f t="shared" si="1"/>
+        <v>294</v>
+      </c>
+      <c r="C40" s="32"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="31"/>
+      <c r="B41" s="34">
+        <f t="shared" si="1"/>
+        <v>295</v>
+      </c>
+      <c r="C41" s="32"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="15">
+        <f t="shared" si="1"/>
+        <v>296</v>
+      </c>
+      <c r="C42" s="29"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="14"/>
+      <c r="B43" s="15">
+        <f t="shared" si="1"/>
+        <v>297</v>
+      </c>
+      <c r="C43" s="29"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
+      <c r="B44" s="15">
+        <f t="shared" si="1"/>
+        <v>298</v>
+      </c>
+      <c r="C44" s="29"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="15">
+        <f t="shared" si="1"/>
+        <v>299</v>
+      </c>
+      <c r="C45" s="29"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="15">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="C46" s="29"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="15">
+        <f t="shared" si="1"/>
+        <v>301</v>
+      </c>
+      <c r="C47" s="37"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="15">
+        <f t="shared" si="1"/>
+        <v>302</v>
+      </c>
+      <c r="C48" s="38"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="15">
+        <f t="shared" si="1"/>
+        <v>303</v>
+      </c>
+      <c r="C49" s="29"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="14"/>
+      <c r="B50" s="15">
+        <f t="shared" si="1"/>
+        <v>304</v>
+      </c>
+      <c r="C50" s="29"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="26"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="46"/>
+    </row>
+    <row r="52" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="39"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="43">
+        <v>0</v>
+      </c>
+      <c r="F52" s="44"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="47"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="49">
+        <f>SUM(E4:E52)</f>
+        <v>168696</v>
+      </c>
+      <c r="F53" s="49"/>
+      <c r="G53" s="49">
+        <f>SUM(G4:G52)</f>
+        <v>154644</v>
+      </c>
+      <c r="H53" s="50">
+        <f>SUM(H4:H52)</f>
+        <v>14052</v>
+      </c>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="47"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B55" s="47"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="52"/>
+      <c r="G55" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="54"/>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="47"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="56"/>
+      <c r="H56" s="54"/>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B57" s="47"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="72">
+        <f>E53-G53</f>
+        <v>14052</v>
+      </c>
+      <c r="F57" s="73"/>
+      <c r="G57" s="74"/>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="47"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="53"/>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B59" s="47"/>
+      <c r="C59" s="48"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="75"/>
+      <c r="G59" s="75"/>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -7863,7 +9213,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/CREDITOS  ABASTOS  HERRADURA   JUNIO   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/CREDITOS  ABASTOS  HERRADURA   JUNIO   2022.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="31">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -7983,8 +7983,8 @@
   </sheetPr>
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8503,11 +8503,15 @@
       <c r="E21" s="23">
         <v>2978</v>
       </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25"/>
+      <c r="F21" s="24">
+        <v>44724</v>
+      </c>
+      <c r="G21" s="25">
+        <v>2978</v>
+      </c>
       <c r="H21" s="21">
         <f t="shared" si="0"/>
-        <v>2978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -8551,59 +8555,81 @@
       <c r="E23" s="23">
         <v>10823</v>
       </c>
-      <c r="F23" s="24"/>
-      <c r="G23" s="25"/>
+      <c r="F23" s="24">
+        <v>44724</v>
+      </c>
+      <c r="G23" s="25">
+        <v>10823</v>
+      </c>
       <c r="H23" s="21">
         <f t="shared" si="0"/>
-        <v>10823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+      <c r="A24" s="14">
+        <v>44724</v>
+      </c>
       <c r="B24" s="15">
         <f t="shared" si="1"/>
         <v>278</v>
       </c>
       <c r="C24" s="29"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="23"/>
+      <c r="D24" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="23">
+        <v>3400</v>
+      </c>
       <c r="F24" s="24"/>
       <c r="G24" s="25"/>
       <c r="H24" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+      <c r="A25" s="14">
+        <v>44724</v>
+      </c>
       <c r="B25" s="15">
         <f t="shared" si="1"/>
         <v>279</v>
       </c>
       <c r="C25" s="29"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="23"/>
+      <c r="D25" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="23">
+        <v>10409</v>
+      </c>
       <c r="F25" s="24"/>
       <c r="G25" s="25"/>
       <c r="H25" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10409</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
+      <c r="A26" s="14">
+        <v>44725</v>
+      </c>
       <c r="B26" s="15">
         <f t="shared" si="1"/>
         <v>280</v>
       </c>
       <c r="C26" s="29"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="23"/>
+      <c r="D26" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="23">
+        <v>1093</v>
+      </c>
       <c r="F26" s="24"/>
       <c r="G26" s="25"/>
       <c r="H26" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -9022,16 +9048,16 @@
       <c r="D53" s="2"/>
       <c r="E53" s="49">
         <f>SUM(E4:E52)</f>
-        <v>168696</v>
+        <v>183598</v>
       </c>
       <c r="F53" s="49"/>
       <c r="G53" s="49">
         <f>SUM(G4:G52)</f>
-        <v>154644</v>
+        <v>168445</v>
       </c>
       <c r="H53" s="50">
         <f>SUM(H4:H52)</f>
-        <v>14052</v>
+        <v>15153</v>
       </c>
       <c r="I53" s="2"/>
     </row>
@@ -9075,7 +9101,7 @@
       <c r="D57" s="2"/>
       <c r="E57" s="72">
         <f>E53-G53</f>
-        <v>14052</v>
+        <v>15153</v>
       </c>
       <c r="F57" s="73"/>
       <c r="G57" s="74"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/CREDITOS  ABASTOS  HERRADURA   JUNIO   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/CREDITOS  ABASTOS  HERRADURA   JUNIO   2022.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="31">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -7983,8 +7983,8 @@
   </sheetPr>
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8481,11 +8481,15 @@
       <c r="E20" s="23">
         <v>251</v>
       </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="25"/>
+      <c r="F20" s="24">
+        <v>44733</v>
+      </c>
+      <c r="G20" s="25">
+        <v>251</v>
+      </c>
       <c r="H20" s="21">
         <f t="shared" si="0"/>
-        <v>251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -8581,11 +8585,15 @@
       <c r="E24" s="23">
         <v>3400</v>
       </c>
-      <c r="F24" s="24"/>
-      <c r="G24" s="25"/>
+      <c r="F24" s="24">
+        <v>44699</v>
+      </c>
+      <c r="G24" s="25">
+        <v>3400</v>
+      </c>
       <c r="H24" s="21">
         <f t="shared" si="0"/>
-        <v>3400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -8603,11 +8611,15 @@
       <c r="E25" s="23">
         <v>10409</v>
       </c>
-      <c r="F25" s="24"/>
-      <c r="G25" s="25"/>
+      <c r="F25" s="24">
+        <v>44726</v>
+      </c>
+      <c r="G25" s="25">
+        <v>10409</v>
+      </c>
       <c r="H25" s="21">
         <f t="shared" si="0"/>
-        <v>10409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -8625,331 +8637,523 @@
       <c r="E26" s="23">
         <v>1093</v>
       </c>
-      <c r="F26" s="24"/>
-      <c r="G26" s="25"/>
+      <c r="F26" s="24">
+        <v>44733</v>
+      </c>
+      <c r="G26" s="25">
+        <v>1093</v>
+      </c>
       <c r="H26" s="21">
         <f t="shared" si="0"/>
-        <v>1093</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
+      <c r="A27" s="14">
+        <v>44726</v>
+      </c>
       <c r="B27" s="15">
         <f t="shared" si="1"/>
         <v>281</v>
       </c>
       <c r="C27" s="29"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="25"/>
+      <c r="D27" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="23">
+        <v>8615</v>
+      </c>
+      <c r="F27" s="24">
+        <v>44728</v>
+      </c>
+      <c r="G27" s="25">
+        <v>8615</v>
+      </c>
       <c r="H27" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
+      <c r="A28" s="14">
+        <v>44726</v>
+      </c>
       <c r="B28" s="15">
         <f t="shared" si="1"/>
         <v>282</v>
       </c>
       <c r="C28" s="29"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="25"/>
+      <c r="D28" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="23">
+        <v>6901</v>
+      </c>
+      <c r="F28" s="24">
+        <v>44727</v>
+      </c>
+      <c r="G28" s="25">
+        <v>6901</v>
+      </c>
       <c r="H28" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
+      <c r="A29" s="14">
+        <v>44726</v>
+      </c>
       <c r="B29" s="15">
         <f t="shared" si="1"/>
         <v>283</v>
       </c>
       <c r="C29" s="29"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="25"/>
+      <c r="D29" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="23">
+        <v>16303</v>
+      </c>
+      <c r="F29" s="24">
+        <v>44728</v>
+      </c>
+      <c r="G29" s="25">
+        <v>16303</v>
+      </c>
       <c r="H29" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
+      <c r="A30" s="14">
+        <v>44728</v>
+      </c>
       <c r="B30" s="15">
         <f t="shared" si="1"/>
         <v>284</v>
       </c>
       <c r="C30" s="29"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="25"/>
+      <c r="D30" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="23">
+        <v>13075</v>
+      </c>
+      <c r="F30" s="24">
+        <v>44730</v>
+      </c>
+      <c r="G30" s="25">
+        <v>13075</v>
+      </c>
       <c r="H30" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
+      <c r="A31" s="14">
+        <v>44728</v>
+      </c>
       <c r="B31" s="15">
         <f t="shared" si="1"/>
         <v>285</v>
       </c>
       <c r="C31" s="29"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="25"/>
+      <c r="D31" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="23">
+        <v>11575</v>
+      </c>
+      <c r="F31" s="24">
+        <v>44729</v>
+      </c>
+      <c r="G31" s="25">
+        <v>11575</v>
+      </c>
       <c r="H31" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
+      <c r="A32" s="14">
+        <v>44729</v>
+      </c>
       <c r="B32" s="15">
         <f t="shared" si="1"/>
         <v>286</v>
       </c>
       <c r="C32" s="29"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="25"/>
+      <c r="D32" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="23">
+        <v>18462</v>
+      </c>
+      <c r="F32" s="24">
+        <v>44730</v>
+      </c>
+      <c r="G32" s="25">
+        <v>18462</v>
+      </c>
       <c r="H32" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
+      <c r="A33" s="14">
+        <v>44729</v>
+      </c>
       <c r="B33" s="15">
         <f t="shared" si="1"/>
         <v>287</v>
       </c>
       <c r="C33" s="29"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="25"/>
+      <c r="D33" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="23">
+        <v>5618</v>
+      </c>
+      <c r="F33" s="24">
+        <v>44730</v>
+      </c>
+      <c r="G33" s="25">
+        <v>5618</v>
+      </c>
       <c r="H33" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
+      <c r="A34" s="14">
+        <v>44730</v>
+      </c>
       <c r="B34" s="15">
         <f t="shared" si="1"/>
         <v>288</v>
       </c>
       <c r="C34" s="29"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="25"/>
+      <c r="D34" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="23">
+        <v>329</v>
+      </c>
+      <c r="F34" s="24">
+        <v>44733</v>
+      </c>
+      <c r="G34" s="25">
+        <v>329</v>
+      </c>
       <c r="H34" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
+      <c r="A35" s="31">
+        <v>44730</v>
+      </c>
       <c r="B35" s="34">
         <f t="shared" si="1"/>
         <v>289</v>
       </c>
       <c r="C35" s="32"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="25"/>
+      <c r="D35" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="23">
+        <v>20983</v>
+      </c>
+      <c r="F35" s="24">
+        <v>44731</v>
+      </c>
+      <c r="G35" s="25">
+        <v>20983</v>
+      </c>
       <c r="H35" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
+      <c r="A36" s="31">
+        <v>44730</v>
+      </c>
       <c r="B36" s="34">
         <f t="shared" si="1"/>
         <v>290</v>
       </c>
       <c r="C36" s="32"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="25"/>
+      <c r="D36" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="23">
+        <v>14363</v>
+      </c>
+      <c r="F36" s="24">
+        <v>44732</v>
+      </c>
+      <c r="G36" s="25">
+        <v>14363</v>
+      </c>
       <c r="H36" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="31"/>
+      <c r="A37" s="31">
+        <v>44730</v>
+      </c>
       <c r="B37" s="34">
         <f t="shared" si="1"/>
         <v>291</v>
       </c>
       <c r="C37" s="32"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="25"/>
+      <c r="D37" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="23">
+        <v>2957</v>
+      </c>
+      <c r="F37" s="24">
+        <v>44730</v>
+      </c>
+      <c r="G37" s="25">
+        <v>2957</v>
+      </c>
       <c r="H37" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="31"/>
+      <c r="A38" s="31">
+        <v>44731</v>
+      </c>
       <c r="B38" s="34">
         <f t="shared" si="1"/>
         <v>292</v>
       </c>
       <c r="C38" s="32"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="36"/>
+      <c r="D38" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="23">
+        <v>12874</v>
+      </c>
+      <c r="F38" s="24">
+        <v>44733</v>
+      </c>
+      <c r="G38" s="25">
+        <v>12874</v>
+      </c>
       <c r="H38" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
+      <c r="A39" s="31">
+        <v>44732</v>
+      </c>
       <c r="B39" s="34">
         <f t="shared" si="1"/>
         <v>293</v>
       </c>
       <c r="C39" s="32"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="25"/>
+      <c r="D39" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="23">
+        <v>13802</v>
+      </c>
+      <c r="F39" s="24">
+        <v>44733</v>
+      </c>
+      <c r="G39" s="25">
+        <v>13802</v>
+      </c>
       <c r="H39" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
+      <c r="A40" s="31">
+        <v>44732</v>
+      </c>
       <c r="B40" s="34">
         <f t="shared" si="1"/>
         <v>294</v>
       </c>
       <c r="C40" s="32"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="25"/>
+      <c r="D40" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="23">
+        <v>16448</v>
+      </c>
+      <c r="F40" s="24">
+        <v>44735</v>
+      </c>
+      <c r="G40" s="25">
+        <v>16448</v>
+      </c>
       <c r="H40" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
+      <c r="A41" s="31">
+        <v>44733</v>
+      </c>
       <c r="B41" s="34">
         <f t="shared" si="1"/>
         <v>295</v>
       </c>
       <c r="C41" s="32"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="25"/>
+      <c r="D41" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="23">
+        <v>11463</v>
+      </c>
+      <c r="F41" s="24">
+        <v>44736</v>
+      </c>
+      <c r="G41" s="25">
+        <v>11463</v>
+      </c>
       <c r="H41" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
+      <c r="A42" s="14">
+        <v>44733</v>
+      </c>
       <c r="B42" s="15">
         <f t="shared" si="1"/>
         <v>296</v>
       </c>
       <c r="C42" s="29"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="25"/>
+      <c r="D42" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="23">
+        <v>7538</v>
+      </c>
+      <c r="F42" s="24">
+        <v>44734</v>
+      </c>
+      <c r="G42" s="25">
+        <v>7538</v>
+      </c>
       <c r="H42" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
+      <c r="A43" s="14">
+        <v>44734</v>
+      </c>
       <c r="B43" s="15">
         <f t="shared" si="1"/>
         <v>297</v>
       </c>
       <c r="C43" s="29"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="25"/>
+      <c r="D43" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="23">
+        <v>3409</v>
+      </c>
+      <c r="F43" s="24">
+        <v>44736</v>
+      </c>
+      <c r="G43" s="25">
+        <v>3409</v>
+      </c>
       <c r="H43" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
+      <c r="A44" s="14">
+        <v>44735</v>
+      </c>
       <c r="B44" s="15">
         <f t="shared" si="1"/>
         <v>298</v>
       </c>
       <c r="C44" s="29"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="23"/>
+      <c r="D44" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="23">
+        <v>268</v>
+      </c>
       <c r="F44" s="24"/>
       <c r="G44" s="25"/>
       <c r="H44" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>268</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
+      <c r="A45" s="14">
+        <v>44736</v>
+      </c>
       <c r="B45" s="15">
         <f t="shared" si="1"/>
         <v>299</v>
       </c>
       <c r="C45" s="29"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="23"/>
+      <c r="D45" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="23">
+        <v>16050</v>
+      </c>
       <c r="F45" s="24"/>
       <c r="G45" s="25"/>
       <c r="H45" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16050</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
+      <c r="A46" s="14">
+        <v>44736</v>
+      </c>
       <c r="B46" s="15">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="C46" s="29"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="23"/>
+      <c r="D46" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="23">
+        <v>3129</v>
+      </c>
       <c r="F46" s="24"/>
       <c r="G46" s="25"/>
       <c r="H46" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -9048,16 +9252,16 @@
       <c r="D53" s="2"/>
       <c r="E53" s="49">
         <f>SUM(E4:E52)</f>
-        <v>183598</v>
+        <v>387760</v>
       </c>
       <c r="F53" s="49"/>
       <c r="G53" s="49">
         <f>SUM(G4:G52)</f>
-        <v>168445</v>
+        <v>368313</v>
       </c>
       <c r="H53" s="50">
         <f>SUM(H4:H52)</f>
-        <v>15153</v>
+        <v>19447</v>
       </c>
       <c r="I53" s="2"/>
     </row>
@@ -9101,7 +9305,7 @@
       <c r="D57" s="2"/>
       <c r="E57" s="72">
         <f>E53-G53</f>
-        <v>15153</v>
+        <v>19447</v>
       </c>
       <c r="F57" s="73"/>
       <c r="G57" s="74"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/CREDITOS  ABASTOS  HERRADURA   JUNIO   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/CREDITOS  ABASTOS  HERRADURA   JUNIO   2022.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="32">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>REMISIONES    POR     CREDITOS         DE   JUNIO      2 0 2 2</t>
+  </si>
+  <si>
+    <t>CREMERIA</t>
   </si>
 </sst>
 </file>
@@ -1314,13 +1317,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>647703</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>152402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1367,13 +1370,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561977</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>123829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>161927</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7981,10 +7984,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8072,7 +8075,7 @@
         <v>382</v>
       </c>
       <c r="H4" s="21">
-        <f t="shared" ref="H4:H52" si="0">E4-G4</f>
+        <f t="shared" ref="H4:H71" si="0">E4-G4</f>
         <v>0</v>
       </c>
       <c r="I4" s="2"/>
@@ -8107,7 +8110,7 @@
         <v>44712</v>
       </c>
       <c r="B6" s="15">
-        <f t="shared" ref="B6:B50" si="1">B5+1</f>
+        <f t="shared" ref="B6:B69" si="1">B5+1</f>
         <v>260</v>
       </c>
       <c r="C6" s="16"/>
@@ -9127,11 +9130,15 @@
       <c r="E45" s="23">
         <v>16050</v>
       </c>
-      <c r="F45" s="24"/>
-      <c r="G45" s="25"/>
+      <c r="F45" s="24">
+        <v>44737</v>
+      </c>
+      <c r="G45" s="25">
+        <v>16050</v>
+      </c>
       <c r="H45" s="21">
         <f t="shared" si="0"/>
-        <v>16050</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -9149,294 +9156,776 @@
       <c r="E46" s="23">
         <v>3129</v>
       </c>
-      <c r="F46" s="24"/>
-      <c r="G46" s="25"/>
+      <c r="F46" s="24">
+        <v>44743</v>
+      </c>
+      <c r="G46" s="25">
+        <v>3129</v>
+      </c>
       <c r="H46" s="21">
         <f t="shared" si="0"/>
-        <v>3129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
+      <c r="A47" s="14">
+        <v>44737</v>
+      </c>
       <c r="B47" s="15">
         <f t="shared" si="1"/>
         <v>301</v>
       </c>
       <c r="C47" s="37"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="25"/>
+      <c r="D47" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" s="23">
+        <v>5951</v>
+      </c>
+      <c r="F47" s="24">
+        <v>44740</v>
+      </c>
+      <c r="G47" s="25">
+        <v>5951</v>
+      </c>
       <c r="H47" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
+      <c r="A48" s="14">
+        <v>44737</v>
+      </c>
       <c r="B48" s="15">
         <f t="shared" si="1"/>
         <v>302</v>
       </c>
       <c r="C48" s="38"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="25"/>
+      <c r="D48" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" s="23">
+        <v>20372</v>
+      </c>
+      <c r="F48" s="24">
+        <v>44737</v>
+      </c>
+      <c r="G48" s="25">
+        <v>20372</v>
+      </c>
       <c r="H48" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
+    <row r="49" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="14">
+        <v>44737</v>
+      </c>
       <c r="B49" s="15">
         <f t="shared" si="1"/>
         <v>303</v>
       </c>
       <c r="C49" s="29"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="25"/>
+      <c r="D49" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="23">
+        <v>4734</v>
+      </c>
+      <c r="F49" s="24">
+        <v>44738</v>
+      </c>
+      <c r="G49" s="25">
+        <v>4734</v>
+      </c>
       <c r="H49" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
+    <row r="50" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="14">
+        <v>44738</v>
+      </c>
       <c r="B50" s="15">
         <f t="shared" si="1"/>
         <v>304</v>
       </c>
       <c r="C50" s="29"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="25"/>
+      <c r="D50" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="23">
+        <v>7507</v>
+      </c>
+      <c r="F50" s="24">
+        <v>44740</v>
+      </c>
+      <c r="G50" s="25">
+        <v>7507</v>
+      </c>
       <c r="H50" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="26"/>
-      <c r="B51" s="15"/>
+    <row r="51" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="14">
+        <v>44738</v>
+      </c>
+      <c r="B51" s="15">
+        <f t="shared" si="1"/>
+        <v>305</v>
+      </c>
       <c r="C51" s="29"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="46"/>
-    </row>
-    <row r="52" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="39"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="41"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="43">
-        <v>0</v>
-      </c>
-      <c r="F52" s="44"/>
-      <c r="G52" s="45"/>
-      <c r="H52" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I52" s="2"/>
-    </row>
-    <row r="53" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="47"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="49">
-        <f>SUM(E4:E52)</f>
-        <v>387760</v>
-      </c>
-      <c r="F53" s="49"/>
-      <c r="G53" s="49">
-        <f>SUM(G4:G52)</f>
-        <v>368313</v>
-      </c>
-      <c r="H53" s="50">
-        <f>SUM(H4:H52)</f>
-        <v>19447</v>
-      </c>
-      <c r="I53" s="2"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="47"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="51"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="2"/>
-    </row>
-    <row r="55" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B55" s="47"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="55" t="s">
+      <c r="D51" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="23">
+        <v>3192</v>
+      </c>
+      <c r="F51" s="24">
+        <v>44740</v>
+      </c>
+      <c r="G51" s="25">
+        <v>3192</v>
+      </c>
+      <c r="H51" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="14">
+        <v>44739</v>
+      </c>
+      <c r="B52" s="15">
+        <f t="shared" si="1"/>
+        <v>306</v>
+      </c>
+      <c r="C52" s="29"/>
+      <c r="D52" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="23">
+        <v>190</v>
+      </c>
+      <c r="F52" s="24"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="21">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="14">
+        <v>44740</v>
+      </c>
+      <c r="B53" s="15">
+        <f t="shared" si="1"/>
+        <v>307</v>
+      </c>
+      <c r="C53" s="29"/>
+      <c r="D53" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53" s="23">
+        <v>4195</v>
+      </c>
+      <c r="F53" s="24">
+        <v>44742</v>
+      </c>
+      <c r="G53" s="25">
+        <v>4195</v>
+      </c>
+      <c r="H53" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="14">
+        <v>44740</v>
+      </c>
+      <c r="B54" s="15">
+        <f t="shared" si="1"/>
+        <v>308</v>
+      </c>
+      <c r="C54" s="29"/>
+      <c r="D54" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="23">
+        <v>10319</v>
+      </c>
+      <c r="F54" s="24">
+        <v>44741</v>
+      </c>
+      <c r="G54" s="25">
+        <v>10319</v>
+      </c>
+      <c r="H54" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="14">
+        <v>44741</v>
+      </c>
+      <c r="B55" s="15">
+        <f t="shared" si="1"/>
+        <v>309</v>
+      </c>
+      <c r="C55" s="29"/>
+      <c r="D55" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55" s="23">
+        <v>6955</v>
+      </c>
+      <c r="F55" s="24">
+        <v>44742</v>
+      </c>
+      <c r="G55" s="25">
+        <v>6955</v>
+      </c>
+      <c r="H55" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="14">
+        <v>44742</v>
+      </c>
+      <c r="B56" s="15">
+        <f t="shared" si="1"/>
+        <v>310</v>
+      </c>
+      <c r="C56" s="29"/>
+      <c r="D56" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E56" s="23">
+        <v>8120</v>
+      </c>
+      <c r="F56" s="24">
+        <v>44743</v>
+      </c>
+      <c r="G56" s="25">
+        <v>8120</v>
+      </c>
+      <c r="H56" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="14">
+        <v>44743</v>
+      </c>
+      <c r="B57" s="15">
+        <f t="shared" si="1"/>
+        <v>311</v>
+      </c>
+      <c r="C57" s="29"/>
+      <c r="D57" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="23">
+        <v>6988</v>
+      </c>
+      <c r="F57" s="24">
+        <v>44744</v>
+      </c>
+      <c r="G57" s="25">
+        <v>6988</v>
+      </c>
+      <c r="H57" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="14">
+        <v>44743</v>
+      </c>
+      <c r="B58" s="15">
+        <f t="shared" si="1"/>
+        <v>312</v>
+      </c>
+      <c r="C58" s="29"/>
+      <c r="D58" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" s="23">
+        <v>8231</v>
+      </c>
+      <c r="F58" s="24">
+        <v>44744</v>
+      </c>
+      <c r="G58" s="25">
+        <v>8231</v>
+      </c>
+      <c r="H58" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="14">
+        <v>44743</v>
+      </c>
+      <c r="B59" s="15">
+        <f t="shared" si="1"/>
+        <v>313</v>
+      </c>
+      <c r="C59" s="29"/>
+      <c r="D59" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="23">
+        <v>3022</v>
+      </c>
+      <c r="F59" s="24">
+        <v>44745</v>
+      </c>
+      <c r="G59" s="25">
+        <v>3022</v>
+      </c>
+      <c r="H59" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="14">
+        <v>44744</v>
+      </c>
+      <c r="B60" s="15">
+        <f t="shared" si="1"/>
+        <v>314</v>
+      </c>
+      <c r="C60" s="29"/>
+      <c r="D60" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="23">
+        <v>203</v>
+      </c>
+      <c r="F60" s="24"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="21">
+        <f t="shared" si="0"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="14">
+        <v>44744</v>
+      </c>
+      <c r="B61" s="15">
+        <f t="shared" si="1"/>
+        <v>315</v>
+      </c>
+      <c r="C61" s="29"/>
+      <c r="D61" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" s="23">
+        <v>12678</v>
+      </c>
+      <c r="F61" s="24">
+        <v>44745</v>
+      </c>
+      <c r="G61" s="25">
+        <v>12678</v>
+      </c>
+      <c r="H61" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="14">
+        <v>44744</v>
+      </c>
+      <c r="B62" s="15">
+        <f t="shared" si="1"/>
+        <v>316</v>
+      </c>
+      <c r="C62" s="29"/>
+      <c r="D62" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E62" s="23">
+        <v>8322</v>
+      </c>
+      <c r="F62" s="24"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="21">
+        <f t="shared" si="0"/>
+        <v>8322</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="14">
+        <v>44744</v>
+      </c>
+      <c r="B63" s="15">
+        <f t="shared" si="1"/>
+        <v>317</v>
+      </c>
+      <c r="C63" s="29"/>
+      <c r="D63" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E63" s="23">
+        <v>11417</v>
+      </c>
+      <c r="F63" s="24">
+        <v>44745</v>
+      </c>
+      <c r="G63" s="25">
+        <v>11417</v>
+      </c>
+      <c r="H63" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="14">
+        <v>44745</v>
+      </c>
+      <c r="B64" s="15">
+        <f t="shared" si="1"/>
+        <v>318</v>
+      </c>
+      <c r="C64" s="29"/>
+      <c r="D64" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" s="23">
+        <v>7757</v>
+      </c>
+      <c r="F64" s="24">
+        <v>44745</v>
+      </c>
+      <c r="G64" s="25">
+        <v>7757</v>
+      </c>
+      <c r="H64" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="26">
+        <v>44745</v>
+      </c>
+      <c r="B65" s="15">
+        <f t="shared" si="1"/>
+        <v>319</v>
+      </c>
+      <c r="C65" s="29"/>
+      <c r="D65" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="23">
+        <v>26728</v>
+      </c>
+      <c r="F65" s="24"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="21">
+        <f t="shared" si="0"/>
+        <v>26728</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="26">
+        <v>44745</v>
+      </c>
+      <c r="B66" s="15">
+        <f t="shared" si="1"/>
+        <v>320</v>
+      </c>
+      <c r="C66" s="29"/>
+      <c r="D66" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E66" s="23">
+        <v>10510</v>
+      </c>
+      <c r="F66" s="24"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="21">
+        <f t="shared" si="0"/>
+        <v>10510</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="26"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="26"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="26"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="26"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="39"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="41"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="43">
+        <v>0</v>
+      </c>
+      <c r="F71" s="44"/>
+      <c r="G71" s="45"/>
+      <c r="H71" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I71" s="2"/>
+    </row>
+    <row r="72" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="47"/>
+      <c r="C72" s="48"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="49">
+        <f>SUM(E4:E71)</f>
+        <v>555151</v>
+      </c>
+      <c r="F72" s="49"/>
+      <c r="G72" s="49">
+        <f>SUM(G4:G71)</f>
+        <v>508930</v>
+      </c>
+      <c r="H72" s="50">
+        <f>SUM(H4:H71)</f>
+        <v>46221</v>
+      </c>
+      <c r="I72" s="2"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="47"/>
+      <c r="C73" s="48"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="51"/>
+      <c r="F73" s="52"/>
+      <c r="G73" s="53"/>
+      <c r="H73" s="54"/>
+      <c r="I73" s="2"/>
+    </row>
+    <row r="74" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B74" s="47"/>
+      <c r="C74" s="48"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="F55" s="52"/>
-      <c r="G55" s="56" t="s">
+      <c r="F74" s="52"/>
+      <c r="G74" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="H55" s="54"/>
-      <c r="I55" s="2"/>
-    </row>
-    <row r="56" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="47"/>
-      <c r="C56" s="48"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="52"/>
-      <c r="G56" s="56"/>
-      <c r="H56" s="54"/>
-      <c r="I56" s="2"/>
-    </row>
-    <row r="57" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B57" s="47"/>
-      <c r="C57" s="48"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="72">
-        <f>E53-G53</f>
-        <v>19447</v>
-      </c>
-      <c r="F57" s="73"/>
-      <c r="G57" s="74"/>
-      <c r="I57" s="2"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="47"/>
-      <c r="C58" s="48"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="51"/>
-      <c r="F58" s="52"/>
-      <c r="G58" s="53"/>
-      <c r="I58" s="2"/>
-    </row>
-    <row r="59" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B59" s="47"/>
-      <c r="C59" s="48"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="75" t="s">
+      <c r="H74" s="54"/>
+      <c r="I74" s="2"/>
+    </row>
+    <row r="75" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="47"/>
+      <c r="C75" s="48"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="55"/>
+      <c r="F75" s="52"/>
+      <c r="G75" s="56"/>
+      <c r="H75" s="54"/>
+      <c r="I75" s="2"/>
+    </row>
+    <row r="76" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B76" s="47"/>
+      <c r="C76" s="48"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="72">
+        <f>E72-G72</f>
+        <v>46221</v>
+      </c>
+      <c r="F76" s="73"/>
+      <c r="G76" s="74"/>
+      <c r="I76" s="2"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="47"/>
+      <c r="C77" s="48"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="51"/>
+      <c r="F77" s="52"/>
+      <c r="G77" s="53"/>
+      <c r="I77" s="2"/>
+    </row>
+    <row r="78" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B78" s="47"/>
+      <c r="C78" s="48"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="F59" s="75"/>
-      <c r="G59" s="75"/>
-      <c r="I59" s="2"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="47"/>
-      <c r="C60" s="48"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="51"/>
-      <c r="F60" s="52"/>
-      <c r="G60" s="53"/>
-      <c r="I60" s="2"/>
-    </row>
-    <row r="61" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A61" s="57"/>
-      <c r="B61" s="34"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="58"/>
-      <c r="E61" s="59"/>
-      <c r="F61" s="60"/>
-      <c r="G61" s="59"/>
-      <c r="I61" s="2"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="47"/>
-      <c r="C62" s="48"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="51"/>
-      <c r="F62" s="52"/>
-      <c r="G62" s="53"/>
-      <c r="I62" s="2"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="47"/>
-      <c r="C63" s="48"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="51"/>
-      <c r="F63" s="52"/>
-      <c r="G63" s="53"/>
-      <c r="I63" s="2"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="47"/>
-      <c r="C64" s="48"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="51"/>
-      <c r="F64" s="52"/>
-      <c r="G64" s="53"/>
-      <c r="I64" s="2"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65" s="47"/>
-      <c r="C65" s="48"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="51"/>
-      <c r="F65" s="52"/>
-      <c r="G65" s="53"/>
-      <c r="I65" s="2"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="47"/>
-      <c r="C66" s="48"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="51"/>
-      <c r="F66" s="52"/>
-      <c r="G66" s="53"/>
-      <c r="I66" s="2"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B67" s="47"/>
-      <c r="C67" s="48"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="51"/>
-      <c r="F67" s="52"/>
-      <c r="G67" s="53"/>
-      <c r="I67" s="2"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="47"/>
-      <c r="C68" s="48"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="51"/>
-      <c r="F68" s="52"/>
-      <c r="G68" s="53"/>
-      <c r="I68" s="2"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="47"/>
-      <c r="C69" s="48"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="51"/>
-      <c r="F69" s="52"/>
-      <c r="G69" s="53"/>
-      <c r="I69" s="2"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B70" s="47"/>
-      <c r="C70" s="48"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="51"/>
-      <c r="F70" s="52"/>
-      <c r="G70" s="53"/>
-      <c r="I70" s="2"/>
+      <c r="F78" s="75"/>
+      <c r="G78" s="75"/>
+      <c r="I78" s="2"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B79" s="47"/>
+      <c r="C79" s="48"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="51"/>
+      <c r="F79" s="52"/>
+      <c r="G79" s="53"/>
+      <c r="I79" s="2"/>
+    </row>
+    <row r="80" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A80" s="57"/>
+      <c r="B80" s="34"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="58"/>
+      <c r="E80" s="59"/>
+      <c r="F80" s="60"/>
+      <c r="G80" s="59"/>
+      <c r="I80" s="2"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B81" s="47"/>
+      <c r="C81" s="48"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="51"/>
+      <c r="F81" s="52"/>
+      <c r="G81" s="53"/>
+      <c r="I81" s="2"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B82" s="47"/>
+      <c r="C82" s="48"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="51"/>
+      <c r="F82" s="52"/>
+      <c r="G82" s="53"/>
+      <c r="I82" s="2"/>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B83" s="47"/>
+      <c r="C83" s="48"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="51"/>
+      <c r="F83" s="52"/>
+      <c r="G83" s="53"/>
+      <c r="I83" s="2"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B84" s="47"/>
+      <c r="C84" s="48"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="51"/>
+      <c r="F84" s="52"/>
+      <c r="G84" s="53"/>
+      <c r="I84" s="2"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B85" s="47"/>
+      <c r="C85" s="48"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="51"/>
+      <c r="F85" s="52"/>
+      <c r="G85" s="53"/>
+      <c r="I85" s="2"/>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B86" s="47"/>
+      <c r="C86" s="48"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="51"/>
+      <c r="F86" s="52"/>
+      <c r="G86" s="53"/>
+      <c r="I86" s="2"/>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B87" s="47"/>
+      <c r="C87" s="48"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="51"/>
+      <c r="F87" s="52"/>
+      <c r="G87" s="53"/>
+      <c r="I87" s="2"/>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B88" s="47"/>
+      <c r="C88" s="48"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="51"/>
+      <c r="F88" s="52"/>
+      <c r="G88" s="53"/>
+      <c r="I88" s="2"/>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B89" s="47"/>
+      <c r="C89" s="48"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="51"/>
+      <c r="F89" s="52"/>
+      <c r="G89" s="53"/>
+      <c r="I89" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="E78:G78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
